--- a/StructureDefinition-be-referralprescription-nursing-medication-service.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-15T15:30:39+00:00</t>
+    <t>2021-10-18T11:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1291,7 +1291,7 @@
     <t>NTE</t>
   </si>
   <si>
-    <t>NusingMedicationType-highLevelCode</t>
+    <t>NursingMedicationType-highLevelCode</t>
   </si>
   <si>
     <t>Details of the nursing activity</t>
@@ -2207,7 +2207,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.4921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.11328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.8671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-be-referralprescription-nursing-medication-service.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication-service.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$125</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4542" uniqueCount="600">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T11:47:25+00:00</t>
+    <t>2021-10-19T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1449,16 +1449,19 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
     <t>When service shall occur - once this is past, this prescription is no longer valid and the status shall reflect this.</t>
   </si>
   <si>
     <t>The date/time at which the requested service should occur.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1472,6 +1475,9 @@
   </si>
   <si>
     <t>Procedure.procedureSchedule</t>
+  </si>
+  <si>
+    <t>occurrencePeriod</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -2197,7 +2203,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN124"/>
+  <dimension ref="A1:AN125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -14470,7 +14476,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
         <v>461</v>
       </c>
@@ -14480,7 +14486,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>87</v>
@@ -14495,13 +14501,13 @@
         <v>88</v>
       </c>
       <c r="J108" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K108" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="K108" t="s" s="2">
+      <c r="L108" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14540,16 +14546,14 @@
         <v>79</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="AB108" s="2"/>
       <c r="AC108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AE108" t="s" s="2">
         <v>461</v>
@@ -14567,32 +14571,34 @@
         <v>99</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B109" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="C109" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>87</v>
@@ -14607,13 +14613,13 @@
         <v>88</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>472</v>
+        <v>220</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14640,13 +14646,13 @@
         <v>79</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>79</v>
@@ -14664,7 +14670,7 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -14679,28 +14685,28 @@
         <v>99</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14719,13 +14725,13 @@
         <v>88</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14752,13 +14758,13 @@
         <v>79</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>79</v>
@@ -14776,7 +14782,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -14791,32 +14797,32 @@
         <v>99</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>87</v>
@@ -14831,17 +14837,15 @@
         <v>88</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>79</v>
@@ -14890,7 +14894,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -14905,32 +14909,32 @@
         <v>99</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>87</v>
@@ -14945,16 +14949,16 @@
         <v>88</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>191</v>
+        <v>493</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -14980,13 +14984,13 @@
         <v>79</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>79</v>
@@ -15004,7 +15008,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -15019,35 +15023,35 @@
         <v>99</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>88</v>
@@ -15059,16 +15063,16 @@
         <v>88</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>513</v>
+        <v>191</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15094,13 +15098,13 @@
         <v>79</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>79</v>
@@ -15118,13 +15122,13 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>79</v>
@@ -15133,28 +15137,28 @@
         <v>99</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15164,7 +15168,7 @@
         <v>78</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>79</v>
@@ -15173,15 +15177,17 @@
         <v>88</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>191</v>
+        <v>515</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>79</v>
@@ -15206,13 +15212,13 @@
         <v>79</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>79</v>
@@ -15230,7 +15236,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15245,16 +15251,16 @@
         <v>99</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
@@ -15262,7 +15268,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15285,13 +15291,13 @@
         <v>88</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>527</v>
+        <v>191</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -15318,13 +15324,13 @@
         <v>79</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>79</v>
@@ -15342,7 +15348,7 @@
         <v>79</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15363,18 +15369,18 @@
         <v>79</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15388,7 +15394,7 @@
         <v>78</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>79</v>
@@ -15397,17 +15403,15 @@
         <v>88</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>191</v>
+        <v>529</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>79</v>
@@ -15432,13 +15436,13 @@
         <v>79</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>79</v>
@@ -15456,7 +15460,7 @@
         <v>79</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -15471,24 +15475,24 @@
         <v>99</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15502,7 +15506,7 @@
         <v>78</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>79</v>
@@ -15511,16 +15515,16 @@
         <v>88</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>541</v>
+        <v>191</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -15546,13 +15550,13 @@
         <v>79</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>79</v>
@@ -15570,7 +15574,7 @@
         <v>79</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -15585,16 +15589,16 @@
         <v>99</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>79</v>
@@ -15602,7 +15606,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15622,18 +15626,20 @@
         <v>79</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M118" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>79</v>
@@ -15682,7 +15688,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -15697,28 +15703,28 @@
         <v>99</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -15728,7 +15734,7 @@
         <v>78</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>79</v>
@@ -15737,17 +15743,15 @@
         <v>79</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>79</v>
@@ -15796,7 +15800,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -15811,13 +15815,13 @@
         <v>99</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>79</v>
@@ -15826,13 +15830,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -15842,25 +15846,25 @@
         <v>78</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -15910,7 +15914,7 @@
         <v>79</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -15925,13 +15929,13 @@
         <v>99</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>79</v>
+        <v>563</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>79</v>
@@ -15940,13 +15944,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -15956,7 +15960,7 @@
         <v>78</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>79</v>
@@ -15965,20 +15969,18 @@
         <v>88</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>191</v>
+        <v>567</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>79</v>
       </c>
@@ -16002,13 +16004,13 @@
         <v>79</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>577</v>
+        <v>79</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>79</v>
@@ -16026,7 +16028,7 @@
         <v>79</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -16044,25 +16046,25 @@
         <v>79</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16078,19 +16080,23 @@
         <v>79</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>582</v>
+        <v>191</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>48</v>
+        <v>575</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>79</v>
       </c>
@@ -16114,13 +16120,13 @@
         <v>79</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>79</v>
@@ -16138,7 +16144,7 @@
         <v>79</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -16153,24 +16159,24 @@
         <v>99</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>584</v>
+        <v>79</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>411</v>
+        <v>571</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16181,7 +16187,7 @@
         <v>77</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>88</v>
@@ -16190,16 +16196,16 @@
         <v>79</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>89</v>
+        <v>584</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>588</v>
+        <v>48</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16250,13 +16256,13 @@
         <v>79</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>79</v>
@@ -16265,24 +16271,24 @@
         <v>99</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>411</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16293,29 +16299,27 @@
         <v>77</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>592</v>
+        <v>89</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>79</v>
@@ -16364,13 +16368,13 @@
         <v>79</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>79</v>
@@ -16379,23 +16383,137 @@
         <v>99</v>
       </c>
       <c r="AJ124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AK124" t="s" s="2">
+      <c r="M125" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AK125" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL124" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN124" t="s" s="2">
+      <c r="AL125" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN125" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN124">
+  <autoFilter ref="A1:AN125">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16405,7 +16523,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI123">
+  <conditionalFormatting sqref="A2:AI124">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-medication-service.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication-service.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$124</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4542" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="598">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T12:13:26+00:00</t>
+    <t>2021-10-19T12:28:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1449,19 +1449,16 @@
 </t>
   </si>
   <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
     <t>When service shall occur - once this is past, this prescription is no longer valid and the status shall reflect this.</t>
   </si>
   <si>
     <t>The date/time at which the requested service should occur.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1475,9 +1472,6 @@
   </si>
   <si>
     <t>Procedure.procedureSchedule</t>
-  </si>
-  <si>
-    <t>occurrencePeriod</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -2203,7 +2197,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN125"/>
+  <dimension ref="A1:AN124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -14476,7 +14470,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
         <v>461</v>
       </c>
@@ -14486,7 +14480,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>87</v>
@@ -14501,13 +14495,13 @@
         <v>88</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>220</v>
+        <v>463</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14546,14 +14540,16 @@
         <v>79</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AB108" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
         <v>461</v>
@@ -14571,34 +14567,32 @@
         <v>99</v>
       </c>
       <c r="AJ108" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AK108" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AK108" t="s" s="2">
+      <c r="AL108" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AL108" t="s" s="2">
+      <c r="AM108" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AM108" t="s" s="2">
+      <c r="AN108" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>471</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>87</v>
@@ -14613,13 +14607,13 @@
         <v>88</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>220</v>
+        <v>472</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14646,13 +14640,13 @@
         <v>79</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>79</v>
@@ -14670,7 +14664,7 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -14685,28 +14679,28 @@
         <v>99</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14725,13 +14719,13 @@
         <v>88</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14758,13 +14752,13 @@
         <v>79</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>79</v>
@@ -14782,7 +14776,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -14797,32 +14791,32 @@
         <v>99</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>87</v>
@@ -14837,15 +14831,17 @@
         <v>88</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M111" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>79</v>
@@ -14894,7 +14890,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -14909,32 +14905,32 @@
         <v>99</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>87</v>
@@ -14949,16 +14945,16 @@
         <v>88</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>493</v>
+        <v>191</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -14984,13 +14980,13 @@
         <v>79</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>79</v>
@@ -15008,7 +15004,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -15023,35 +15019,35 @@
         <v>99</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>88</v>
@@ -15063,16 +15059,16 @@
         <v>88</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>191</v>
+        <v>513</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15098,13 +15094,13 @@
         <v>79</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>79</v>
@@ -15122,13 +15118,13 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>79</v>
@@ -15137,28 +15133,28 @@
         <v>99</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="AK113" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM113" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AL113" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="AN113" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15168,7 +15164,7 @@
         <v>78</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>79</v>
@@ -15177,17 +15173,15 @@
         <v>88</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>515</v>
+        <v>191</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>79</v>
@@ -15212,13 +15206,13 @@
         <v>79</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>79</v>
@@ -15236,7 +15230,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15251,16 +15245,16 @@
         <v>99</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
@@ -15268,7 +15262,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15291,13 +15285,13 @@
         <v>88</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>191</v>
+        <v>527</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -15324,31 +15318,31 @@
         <v>79</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="Y115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE115" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15369,18 +15363,18 @@
         <v>79</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15394,7 +15388,7 @@
         <v>78</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>79</v>
@@ -15403,15 +15397,17 @@
         <v>88</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>529</v>
+        <v>191</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M116" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>79</v>
@@ -15436,13 +15432,13 @@
         <v>79</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>79</v>
@@ -15460,7 +15456,7 @@
         <v>79</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -15475,24 +15471,24 @@
         <v>99</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15506,7 +15502,7 @@
         <v>78</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>79</v>
@@ -15515,16 +15511,16 @@
         <v>88</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>191</v>
+        <v>541</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -15550,13 +15546,13 @@
         <v>79</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>79</v>
@@ -15574,7 +15570,7 @@
         <v>79</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -15589,16 +15585,16 @@
         <v>99</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="AK117" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM117" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>79</v>
@@ -15606,7 +15602,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15626,20 +15622,18 @@
         <v>79</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="M118" s="2"/>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>79</v>
@@ -15688,7 +15682,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -15703,28 +15697,28 @@
         <v>99</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -15734,7 +15728,7 @@
         <v>78</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>79</v>
@@ -15743,15 +15737,17 @@
         <v>79</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M119" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>79</v>
@@ -15800,7 +15796,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -15815,13 +15811,13 @@
         <v>99</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>79</v>
@@ -15830,13 +15826,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -15846,25 +15842,25 @@
         <v>78</v>
       </c>
       <c r="G120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I120" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J120" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -15914,7 +15910,7 @@
         <v>79</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -15929,13 +15925,13 @@
         <v>99</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>563</v>
+        <v>79</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>79</v>
@@ -15944,13 +15940,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -15960,7 +15956,7 @@
         <v>78</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>79</v>
@@ -15969,18 +15965,20 @@
         <v>88</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>567</v>
+        <v>191</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N121" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="O121" t="s" s="2">
         <v>79</v>
       </c>
@@ -16004,13 +16002,13 @@
         <v>79</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>79</v>
@@ -16028,7 +16026,7 @@
         <v>79</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -16046,25 +16044,25 @@
         <v>79</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>574</v>
+        <v>79</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16080,23 +16078,19 @@
         <v>79</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>191</v>
+        <v>582</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>575</v>
+        <v>48</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>79</v>
       </c>
@@ -16120,13 +16114,13 @@
         <v>79</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>579</v>
+        <v>79</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>79</v>
@@ -16144,7 +16138,7 @@
         <v>79</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -16159,24 +16153,24 @@
         <v>99</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>79</v>
+        <v>584</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>571</v>
+        <v>411</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16187,7 +16181,7 @@
         <v>77</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>88</v>
@@ -16196,16 +16190,16 @@
         <v>79</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>584</v>
+        <v>89</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>48</v>
+        <v>588</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16256,13 +16250,13 @@
         <v>79</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>79</v>
@@ -16271,24 +16265,24 @@
         <v>99</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>586</v>
+        <v>79</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>411</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16299,27 +16293,29 @@
         <v>77</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>89</v>
+        <v>592</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M124" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>79</v>
@@ -16368,13 +16364,13 @@
         <v>79</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>79</v>
@@ -16383,137 +16379,23 @@
         <v>99</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>411</v>
+        <v>130</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN125" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN125">
+  <autoFilter ref="A1:AN124">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16523,7 +16405,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI124">
+  <conditionalFormatting sqref="A2:AI123">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-medication-service.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T12:28:21+00:00</t>
+    <t>2021-10-19T13:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication-service.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T13:42:10+00:00</t>
+    <t>2021-10-19T15:13:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication-service.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T15:13:29+00:00</t>
+    <t>2021-10-21T11:58:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
